--- a/books.xlsx
+++ b/books.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +474,16 @@
           <t>bookcover</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>book_cover</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -485,27 +491,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lord of the Rings: Fellowship of the Ring</t>
+          <t>Civil War</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>J. R. R Tolkien</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>Mark Millar</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Steve McNiven</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fantasy</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>19934</v>
+          <t>Superhero</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2006-07-21</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>static/book_covers\fellowship.jpg</t>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>When the superhero community is divided, heroes must pick a side in the upcoming war</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>book_covers/civilwar.jpg</t>
         </is>
       </c>
     </row>
@@ -515,29 +533,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lord of the Rings: The Two Towers</t>
+          <t>Devil's Reign</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>Chip Zdarsky</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Marco Checchetto</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fantasy</t>
+          <t>Superhero</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1954-11-11</t>
+          <t>2022-12-20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>static/book_covers\twotowers.jpg</t>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>When Mayor Fisk outlaws superheroes in New York, the heroes must find a way to fight crime in the shadows</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>book_covers/devilreign.jpg</t>
         </is>
       </c>
     </row>
@@ -547,33 +575,73 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Civil War</t>
+          <t>Lord of the Rings: The Two Towers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mark Millar</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Steve McNiven</t>
-        </is>
-      </c>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Superhero</t>
+          <t>Fantasy</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2007-02-21</t>
+          <t>1954-11-11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>static/book_covers\civilwar.jpg</t>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Second of the Lord of the Rings trilogy, Frodo and Sam have left the fellowship and must continue their journey to destroy the One Ring</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>book_covers/twotowers.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lord of the Rings: Fellowship of the Ring</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1954-07-29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>First novel of the Lord of the Rings trilogy. Frodo and the fellowship begin their adventure to destroy the evil One Ring</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>book_covers/fellowship.jpg</t>
         </is>
       </c>
     </row>

--- a/books.xlsx
+++ b/books.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,128 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lord of the Rings: Return of the King</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1955-10-20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>The last installment of the Lord of the Rings trilogy. Frodo must finally destroy the ring</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>book_covers/returnoftheking.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Absolute Batman #1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Scott Snyder</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Nick Dragotta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Superhero</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A new interpretation of the Batman mythos</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>book_covers/absolutebatman1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Absolute Superman #1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Jason Aaron</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rafa Sandoval</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Superhero</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>A new interpretation of the Superman mythos</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>book_covers/absolutesuperman1.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
